--- a/Inherit/bin/Debug/net6.0-windows/Assets/Componentes.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Componentes.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>Fondo Inversión 2</t>
+  </si>
+  <si>
+    <t>Fondo de inversión 2</t>
+  </si>
+  <si>
+    <t>Terreno</t>
+  </si>
+  <si>
+    <t>Acciones 3</t>
   </si>
 </sst>
 </file>
@@ -409,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -464,6 +473,39 @@
         <v>4564</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0">
+        <v>79000</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/Componentes.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Componentes.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ID</t>
   </si>
@@ -51,21 +51,6 @@
   </si>
   <si>
     <t>Acción 1</t>
-  </si>
-  <si>
-    <t>Acción 2</t>
-  </si>
-  <si>
-    <t>Fondo Inversión 2</t>
-  </si>
-  <si>
-    <t>Fondo de inversión 2</t>
-  </si>
-  <si>
-    <t>Terreno</t>
-  </si>
-  <si>
-    <t>Acciones 3</t>
   </si>
 </sst>
 </file>
@@ -418,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -442,68 +427,13 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="0">
-        <v>84459</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0">
-        <v>7865</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4564</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0">
-        <v>79000</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/Componentes.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Componentes.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Acción 1</t>
+  </si>
+  <si>
+    <t>Acción 2</t>
+  </si>
+  <si>
+    <t>Acción 3</t>
+  </si>
+  <si>
+    <t>Fondo Inversión</t>
   </si>
 </sst>
 </file>
@@ -403,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -436,6 +445,39 @@
         <v>456</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0">
+        <v>8465</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0">
+        <v>894560</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/Componentes.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Componentes.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -60,6 +60,27 @@
   </si>
   <si>
     <t>Fondo Inversión</t>
+  </si>
+  <si>
+    <t>Accion 4</t>
+  </si>
+  <si>
+    <t>Accion 5</t>
+  </si>
+  <si>
+    <t>Accion 6</t>
+  </si>
+  <si>
+    <t>Accion 7</t>
+  </si>
+  <si>
+    <t>Accion 8</t>
+  </si>
+  <si>
+    <t>Accion 9</t>
+  </si>
+  <si>
+    <t>Fondo Inversion 4</t>
   </si>
 </sst>
 </file>
@@ -412,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -453,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="0">
-        <v>8465</v>
+        <v>8465.55</v>
       </c>
     </row>
     <row r="4">
@@ -476,6 +497,83 @@
       </c>
       <c r="C5" s="0">
         <v>894560</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="0">
+        <v>5674</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="0">
+        <v>5677</v>
       </c>
     </row>
   </sheetData>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/Componentes.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Componentes.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ID</t>
   </si>
@@ -48,39 +48,6 @@
   </si>
   <si>
     <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Acción 1</t>
-  </si>
-  <si>
-    <t>Acción 2</t>
-  </si>
-  <si>
-    <t>Acción 3</t>
-  </si>
-  <si>
-    <t>Fondo Inversión</t>
-  </si>
-  <si>
-    <t>Accion 4</t>
-  </si>
-  <si>
-    <t>Accion 5</t>
-  </si>
-  <si>
-    <t>Accion 6</t>
-  </si>
-  <si>
-    <t>Accion 7</t>
-  </si>
-  <si>
-    <t>Accion 8</t>
-  </si>
-  <si>
-    <t>Accion 9</t>
-  </si>
-  <si>
-    <t>Fondo Inversion 4</t>
   </si>
 </sst>
 </file>
@@ -433,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -455,127 +422,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="0">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0">
-        <v>8465.55</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0">
-        <v>894560</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0">
-        <v>4859</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="0">
-        <v>45664</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5673</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="0">
-        <v>5674</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>13</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="0">
-        <v>5677</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/Componentes.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Componentes.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Cuenta 1</t>
+  </si>
+  <si>
+    <t>Cuenta 2</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -422,6 +428,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0">
+        <v>564856</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0">
+        <v>45200</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
